--- a/Project Outputs for Twintig-USB/BOM/Bill of Materials-Twintig-USB.xlsx
+++ b/Project Outputs for Twintig-USB/BOM/Bill of Materials-Twintig-USB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\Twintig\Twintig-USB\Project Outputs for Twintig-USB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72559BBF-5089-4E91-8F23-39933CD9F729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EE7D056-905A-430D-BCCC-8DF05A7AA4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" xr2:uid="{27F00B70-09A9-47F4-B022-0EFE6AC8EFAB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{81D8B5C0-FA69-4FAA-B225-DAA0CB45A2D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Twintig-USB" sheetId="1" r:id="rId1"/>
@@ -487,20 +487,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDFBAF2-5181-487A-908F-7A5D69AF6B97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5A0BDA-7804-4358-807F-57B104F12051}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="86.53125" customWidth="1"/>
-    <col min="2" max="2" width="10.9296875" customWidth="1"/>
-    <col min="3" max="3" width="24.9296875" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="87.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -514,7 +514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -542,7 +542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -556,7 +556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -570,7 +570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -584,7 +584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -598,7 +598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -612,7 +612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
